--- a/pratzz/input/tryout-openpyxl.xlsx
+++ b/pratzz/input/tryout-openpyxl.xlsx
@@ -401,7 +401,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hello, World!</t>
+          <t>Hello World 3</t>
         </is>
       </c>
     </row>
